--- a/.jwf/bookInfo.xlsx
+++ b/.jwf/bookInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>书号</t>
   </si>
@@ -41,6 +41,12 @@
     <t>计算机组成原理试题解析（第六版）</t>
   </si>
   <si>
+    <t>电子技术基础（模拟部分）（第六版）</t>
+  </si>
+  <si>
+    <t>康华光</t>
+  </si>
+  <si>
     <t>数据库系统概论（第五版）</t>
   </si>
   <si>
@@ -53,6 +59,12 @@
     <t>骆斌</t>
   </si>
   <si>
+    <t>电路与电子技术</t>
+  </si>
+  <si>
+    <t>张继和</t>
+  </si>
+  <si>
     <t>程序设计语言编译原理（第三版）</t>
   </si>
   <si>
@@ -89,16 +101,22 @@
     <t>李勇</t>
   </si>
   <si>
+    <t>大学物理（下册）</t>
+  </si>
+  <si>
+    <t>王兵</t>
+  </si>
+  <si>
     <t>概率论与数理统计</t>
   </si>
   <si>
     <t>安徽理工大学数学系</t>
   </si>
   <si>
-    <t>大学物理（下册）</t>
-  </si>
-  <si>
-    <t>王兵</t>
+    <t>电工电子技术实验</t>
+  </si>
+  <si>
+    <t>杨茂宇</t>
   </si>
 </sst>
 </file>
@@ -144,17 +162,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="30.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -185,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -210,7 +228,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>9.787040406641E12</v>
+        <v>9.787040384802E12</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -219,15 +237,15 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>9.787040417142E12</v>
+        <v>9.787040406641E12</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -236,15 +254,15 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
-        <v>9.78711802207E12</v>
+        <v>9.787040417142E12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -253,15 +271,15 @@
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>9.787121298752E12</v>
+        <v>9.787040446531E12</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -270,15 +288,15 @@
         <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>9.787121344398E12</v>
+        <v>9.78711802207E12</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -287,15 +305,15 @@
         <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>9.787302023685E12</v>
+        <v>9.787121298752E12</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -304,15 +322,15 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>9.787302330981E12</v>
+        <v>9.787121344398E12</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -329,7 +347,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="1">
-        <v>9.7873023861E12</v>
+        <v>9.787302023685E12</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -338,15 +356,15 @@
         <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>9.78755765205E12</v>
+        <v>9.787302330981E12</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -355,15 +373,15 @@
         <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="1">
-        <v>9.787313209092E12</v>
+        <v>9.7873023861E12</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -372,10 +390,61 @@
         <v>28</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="1">
+        <v>9.787313209092E12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="n">
         <v>11.0</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>11.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="1">
+        <v>9.78755765205E12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="1">
+        <v>9.787562824657E12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
